--- a/biology/Zoologie/Beroe/Beroe.xlsx
+++ b/biology/Zoologie/Beroe/Beroe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beroe (les béroés en français) est un genre de cténophores de la famille des Beroidae.
 Le nom provient de Béroé, l'une des Océanides de la mythologie grecque. Leur aspect et notamment leur luminescence irisée ont inspiré beaucoup de créateurs, dont les scénaristes du film Abyss.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le WoRMS, le genre Beroe est à attribuer, en 1776, au zoologiste danois Otto Friedrich Müller (1730-1784) bien que ce nom générique ait été mentionné antérieurement par Patrick Browne (~1720-1790) en 1756 et par Gronov en 1760[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le WoRMS, le genre Beroe est à attribuer, en 1776, au zoologiste danois Otto Friedrich Müller (1730-1784) bien que ce nom générique ait été mentionné antérieurement par Patrick Browne (~1720-1790) en 1756 et par Gronov en 1760.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 novembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 novembre 2021) :
 Beroe abyssicola Mortensen, 1927
 Beroe australis Agassiz &amp; Mayer, 1899
 Beroe baffini Kramp, 1942
